--- a/natmiOut/OldD2/LR-pairs_lrc2p/Pgf-Nrp1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Pgf-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,15 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -89,15 +98,6 @@
   </si>
   <si>
     <t>Nrp1</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.79353876547209</v>
+        <v>8.208963499999999</v>
       </c>
       <c r="H2">
-        <v>6.79353876547209</v>
+        <v>16.417927</v>
       </c>
       <c r="I2">
-        <v>0.3159070508054323</v>
+        <v>0.2898994609319864</v>
       </c>
       <c r="J2">
-        <v>0.3159070508054323</v>
+        <v>0.2177550321922232</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N2">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O2">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P2">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q2">
-        <v>719.1419842828114</v>
+        <v>883.8023432713609</v>
       </c>
       <c r="R2">
-        <v>719.1419842828114</v>
+        <v>3535.209373085444</v>
       </c>
       <c r="S2">
-        <v>0.08902069036230929</v>
+        <v>0.07977521572443939</v>
       </c>
       <c r="T2">
-        <v>0.08902069036230929</v>
+        <v>0.04479507766810258</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.79353876547209</v>
+        <v>8.208963499999999</v>
       </c>
       <c r="H3">
-        <v>6.79353876547209</v>
+        <v>16.417927</v>
       </c>
       <c r="I3">
-        <v>0.3159070508054323</v>
+        <v>0.2898994609319864</v>
       </c>
       <c r="J3">
-        <v>0.3159070508054323</v>
+        <v>0.2177550321922232</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N3">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O3">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P3">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q3">
-        <v>174.3834895828262</v>
+        <v>225.0218691512857</v>
       </c>
       <c r="R3">
-        <v>174.3834895828262</v>
+        <v>1350.131214907714</v>
       </c>
       <c r="S3">
-        <v>0.0215864724487381</v>
+        <v>0.02031129278048168</v>
       </c>
       <c r="T3">
-        <v>0.0215864724487381</v>
+        <v>0.01710768055051177</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.79353876547209</v>
+        <v>8.208963499999999</v>
       </c>
       <c r="H4">
-        <v>6.79353876547209</v>
+        <v>16.417927</v>
       </c>
       <c r="I4">
-        <v>0.3159070508054323</v>
+        <v>0.2898994609319864</v>
       </c>
       <c r="J4">
-        <v>0.3159070508054323</v>
+        <v>0.2177550321922232</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N4">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O4">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P4">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q4">
-        <v>514.9100642379098</v>
+        <v>675.6299326496645</v>
       </c>
       <c r="R4">
-        <v>514.9100642379098</v>
+        <v>4053.779595897986</v>
       </c>
       <c r="S4">
-        <v>0.063739359396007</v>
+        <v>0.06098481638723892</v>
       </c>
       <c r="T4">
-        <v>0.063739359396007</v>
+        <v>0.05136594546000908</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.79353876547209</v>
+        <v>8.208963499999999</v>
       </c>
       <c r="H5">
-        <v>6.79353876547209</v>
+        <v>16.417927</v>
       </c>
       <c r="I5">
-        <v>0.3159070508054323</v>
+        <v>0.2898994609319864</v>
       </c>
       <c r="J5">
-        <v>0.3159070508054323</v>
+        <v>0.2177550321922232</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N5">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O5">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P5">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q5">
-        <v>475.5427594593661</v>
+        <v>585.0727682173415</v>
       </c>
       <c r="R5">
-        <v>475.5427594593661</v>
+        <v>3510.436609304048</v>
       </c>
       <c r="S5">
-        <v>0.05886618452138976</v>
+        <v>0.05281079718149442</v>
       </c>
       <c r="T5">
-        <v>0.05886618452138976</v>
+        <v>0.04448117889704546</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.79353876547209</v>
+        <v>8.208963499999999</v>
       </c>
       <c r="H6">
-        <v>6.79353876547209</v>
+        <v>16.417927</v>
       </c>
       <c r="I6">
-        <v>0.3159070508054323</v>
+        <v>0.2898994609319864</v>
       </c>
       <c r="J6">
-        <v>0.3159070508054323</v>
+        <v>0.2177550321922232</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N6">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O6">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P6">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q6">
-        <v>538.7147992437425</v>
+        <v>683.4508228728442</v>
       </c>
       <c r="R6">
-        <v>538.7147992437425</v>
+        <v>4100.704937237066</v>
       </c>
       <c r="S6">
-        <v>0.06668608478602081</v>
+        <v>0.06169075839956934</v>
       </c>
       <c r="T6">
-        <v>0.06668608478602081</v>
+        <v>0.05196054229658957</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.79353876547209</v>
+        <v>8.208963499999999</v>
       </c>
       <c r="H7">
-        <v>6.79353876547209</v>
+        <v>16.417927</v>
       </c>
       <c r="I7">
-        <v>0.3159070508054323</v>
+        <v>0.2898994609319864</v>
       </c>
       <c r="J7">
-        <v>0.3159070508054323</v>
+        <v>0.2177550321922232</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N7">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O7">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P7">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q7">
-        <v>129.3206254025433</v>
+        <v>158.7192872565442</v>
       </c>
       <c r="R7">
-        <v>129.3206254025433</v>
+        <v>634.877149026177</v>
       </c>
       <c r="S7">
-        <v>0.01600825929096733</v>
+        <v>0.01432658045876261</v>
       </c>
       <c r="T7">
-        <v>0.01600825929096733</v>
+        <v>0.008044607319964746</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>13.3696763009823</v>
+        <v>0.484803</v>
       </c>
       <c r="H8">
-        <v>13.3696763009823</v>
+        <v>1.454409</v>
       </c>
       <c r="I8">
-        <v>0.6217047044660676</v>
+        <v>0.01712081292092599</v>
       </c>
       <c r="J8">
-        <v>0.6217047044660676</v>
+        <v>0.01929018679493819</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N8">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O8">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P8">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q8">
-        <v>1415.270579329528</v>
+        <v>52.195387082058</v>
       </c>
       <c r="R8">
-        <v>1415.270579329528</v>
+        <v>313.172322492348</v>
       </c>
       <c r="S8">
-        <v>0.1751926139412179</v>
+        <v>0.004711345580822159</v>
       </c>
       <c r="T8">
-        <v>0.1751926139412179</v>
+        <v>0.00396824545000032</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>13.3696763009823</v>
+        <v>0.484803</v>
       </c>
       <c r="H9">
-        <v>13.3696763009823</v>
+        <v>1.454409</v>
       </c>
       <c r="I9">
-        <v>0.6217047044660676</v>
+        <v>0.01712081292092599</v>
       </c>
       <c r="J9">
-        <v>0.6217047044660676</v>
+        <v>0.01929018679493819</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N9">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O9">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P9">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q9">
-        <v>343.1865024172113</v>
+        <v>13.289287646382</v>
       </c>
       <c r="R9">
-        <v>343.1865024172113</v>
+        <v>119.603588817438</v>
       </c>
       <c r="S9">
-        <v>0.04248215239258236</v>
+        <v>0.00119953946364311</v>
       </c>
       <c r="T9">
-        <v>0.04248215239258236</v>
+        <v>0.001515511949942845</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>13.3696763009823</v>
+        <v>0.484803</v>
       </c>
       <c r="H10">
-        <v>13.3696763009823</v>
+        <v>1.454409</v>
       </c>
       <c r="I10">
-        <v>0.6217047044660676</v>
+        <v>0.01712081292092599</v>
       </c>
       <c r="J10">
-        <v>0.6217047044660676</v>
+        <v>0.01929018679493819</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N10">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O10">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P10">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q10">
-        <v>1013.342400865871</v>
+        <v>39.90119072138101</v>
       </c>
       <c r="R10">
-        <v>1013.342400865871</v>
+        <v>359.110716492429</v>
       </c>
       <c r="S10">
-        <v>0.1254389843313671</v>
+        <v>0.003601626677836075</v>
       </c>
       <c r="T10">
-        <v>0.1254389843313671</v>
+        <v>0.004550336554093971</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>13.3696763009823</v>
+        <v>0.484803</v>
       </c>
       <c r="H11">
-        <v>13.3696763009823</v>
+        <v>1.454409</v>
       </c>
       <c r="I11">
-        <v>0.6217047044660676</v>
+        <v>0.01712081292092599</v>
       </c>
       <c r="J11">
-        <v>0.6217047044660676</v>
+        <v>0.01929018679493819</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N11">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O11">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P11">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q11">
-        <v>935.8675913591846</v>
+        <v>34.553087396487</v>
       </c>
       <c r="R11">
-        <v>935.8675913591846</v>
+        <v>310.977786568383</v>
       </c>
       <c r="S11">
-        <v>0.1158485819091642</v>
+        <v>0.003118887409595626</v>
       </c>
       <c r="T11">
-        <v>0.1158485819091642</v>
+        <v>0.003940438212356103</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>13.3696763009823</v>
+        <v>0.484803</v>
       </c>
       <c r="H12">
-        <v>13.3696763009823</v>
+        <v>1.454409</v>
       </c>
       <c r="I12">
-        <v>0.6217047044660676</v>
+        <v>0.01712081292092599</v>
       </c>
       <c r="J12">
-        <v>0.6217047044660676</v>
+        <v>0.01929018679493819</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N12">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O12">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P12">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q12">
-        <v>1060.190091362053</v>
+        <v>40.363074982758</v>
       </c>
       <c r="R12">
-        <v>1060.190091362053</v>
+        <v>363.267674844822</v>
       </c>
       <c r="S12">
-        <v>0.1312381364334502</v>
+        <v>0.003643318032098257</v>
       </c>
       <c r="T12">
-        <v>0.1312381364334502</v>
+        <v>0.004603009890410681</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>13.3696763009823</v>
+        <v>0.484803</v>
       </c>
       <c r="H13">
-        <v>13.3696763009823</v>
+        <v>1.454409</v>
       </c>
       <c r="I13">
-        <v>0.6217047044660676</v>
+        <v>0.01712081292092599</v>
       </c>
       <c r="J13">
-        <v>0.6217047044660676</v>
+        <v>0.01929018679493819</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N13">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O13">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P13">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q13">
-        <v>254.5028387061018</v>
+        <v>9.373605647026501</v>
       </c>
       <c r="R13">
-        <v>254.5028387061018</v>
+        <v>56.24163388215901</v>
       </c>
       <c r="S13">
-        <v>0.0315042354582859</v>
+        <v>0.0008460957569307613</v>
       </c>
       <c r="T13">
-        <v>0.0315042354582859</v>
+        <v>0.0007126447381342728</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.34165083682753</v>
+        <v>0.05506833333333333</v>
       </c>
       <c r="H14">
-        <v>1.34165083682753</v>
+        <v>0.165205</v>
       </c>
       <c r="I14">
-        <v>0.0623882447285001</v>
+        <v>0.001944737620986653</v>
       </c>
       <c r="J14">
-        <v>0.0623882447285001</v>
+        <v>0.00219115483296498</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N14">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O14">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P14">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q14">
-        <v>142.0228070110669</v>
+        <v>5.928826707543332</v>
       </c>
       <c r="R14">
-        <v>142.0228070110669</v>
+        <v>35.57296024526</v>
       </c>
       <c r="S14">
-        <v>0.01758062886555959</v>
+        <v>0.0005351574740528452</v>
       </c>
       <c r="T14">
-        <v>0.01758062886555959</v>
+        <v>0.0004507494037559606</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.34165083682753</v>
+        <v>0.05506833333333333</v>
       </c>
       <c r="H15">
-        <v>1.34165083682753</v>
+        <v>0.165205</v>
       </c>
       <c r="I15">
-        <v>0.0623882447285001</v>
+        <v>0.001944737620986653</v>
       </c>
       <c r="J15">
-        <v>0.0623882447285001</v>
+        <v>0.00219115483296498</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N15">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O15">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P15">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q15">
-        <v>34.4388635738425</v>
+        <v>1.509518138034444</v>
       </c>
       <c r="R15">
-        <v>34.4388635738425</v>
+        <v>13.58566324231</v>
       </c>
       <c r="S15">
-        <v>0.00426309613072346</v>
+        <v>0.000136254600384871</v>
       </c>
       <c r="T15">
-        <v>0.00426309613072346</v>
+        <v>0.0001721456286988788</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>1.34165083682753</v>
+        <v>0.05506833333333333</v>
       </c>
       <c r="H16">
-        <v>1.34165083682753</v>
+        <v>0.165205</v>
       </c>
       <c r="I16">
-        <v>0.0623882447285001</v>
+        <v>0.001944737620986653</v>
       </c>
       <c r="J16">
-        <v>0.0623882447285001</v>
+        <v>0.00219115483296498</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N16">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O16">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P16">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q16">
-        <v>101.689199462116</v>
+        <v>4.532340086678333</v>
       </c>
       <c r="R16">
-        <v>101.689199462116</v>
+        <v>40.791060780105</v>
       </c>
       <c r="S16">
-        <v>0.01258783791845499</v>
+        <v>0.0004091055097375694</v>
       </c>
       <c r="T16">
-        <v>0.01258783791845499</v>
+        <v>0.0005168686046491011</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.34165083682753</v>
+        <v>0.05506833333333333</v>
       </c>
       <c r="H17">
-        <v>1.34165083682753</v>
+        <v>0.165205</v>
       </c>
       <c r="I17">
-        <v>0.0623882447285001</v>
+        <v>0.001944737620986653</v>
       </c>
       <c r="J17">
-        <v>0.0623882447285001</v>
+        <v>0.00219115483296498</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N17">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O17">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P17">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q17">
-        <v>93.91458019178539</v>
+        <v>3.924853877648333</v>
       </c>
       <c r="R17">
-        <v>93.91458019178539</v>
+        <v>35.323684898835</v>
       </c>
       <c r="S17">
-        <v>0.01162543829518843</v>
+        <v>0.0003542715938241892</v>
       </c>
       <c r="T17">
-        <v>0.01162543829518843</v>
+        <v>0.0004475908048370782</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.34165083682753</v>
+        <v>0.05506833333333333</v>
       </c>
       <c r="H18">
-        <v>1.34165083682753</v>
+        <v>0.165205</v>
       </c>
       <c r="I18">
-        <v>0.0623882447285001</v>
+        <v>0.001944737620986653</v>
       </c>
       <c r="J18">
-        <v>0.0623882447285001</v>
+        <v>0.00219115483296498</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N18">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O18">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P18">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q18">
-        <v>106.3903785888703</v>
+        <v>4.584805101265555</v>
       </c>
       <c r="R18">
-        <v>106.3903785888703</v>
+        <v>41.26324591139</v>
       </c>
       <c r="S18">
-        <v>0.01316978448885014</v>
+        <v>0.0004138411928782017</v>
       </c>
       <c r="T18">
-        <v>0.01316978448885014</v>
+        <v>0.0005228517211769842</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,1177 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.05506833333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.165205</v>
+      </c>
+      <c r="I19">
+        <v>0.001944737620986653</v>
+      </c>
+      <c r="J19">
+        <v>0.00219115483296498</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>19.3348755</v>
+      </c>
+      <c r="N19">
+        <v>38.66975100000001</v>
+      </c>
+      <c r="O19">
+        <v>0.04941913452582716</v>
+      </c>
+      <c r="P19">
+        <v>0.03694338192314826</v>
+      </c>
+      <c r="Q19">
+        <v>1.0647393689925</v>
+      </c>
+      <c r="R19">
+        <v>6.388436213955001</v>
+      </c>
+      <c r="S19">
+        <v>9.610725010897649E-05</v>
+      </c>
+      <c r="T19">
+        <v>8.094866984697739E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.1931886666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.579566</v>
+      </c>
+      <c r="I20">
+        <v>0.006822455761295062</v>
+      </c>
+      <c r="J20">
+        <v>0.007686927404873833</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>107.663086</v>
+      </c>
+      <c r="N20">
+        <v>215.326172</v>
+      </c>
+      <c r="O20">
+        <v>0.2751823527645522</v>
+      </c>
+      <c r="P20">
+        <v>0.2057131686791961</v>
+      </c>
+      <c r="Q20">
+        <v>20.79928803355867</v>
+      </c>
+      <c r="R20">
+        <v>124.795728201352</v>
+      </c>
+      <c r="S20">
+        <v>0.00187741942802525</v>
+      </c>
+      <c r="T20">
+        <v>0.001581302193863546</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.1931886666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.579566</v>
+      </c>
+      <c r="I21">
+        <v>0.006822455761295062</v>
+      </c>
+      <c r="J21">
+        <v>0.007686927404873833</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>27.41172733333334</v>
+      </c>
+      <c r="N21">
+        <v>82.23518200000001</v>
+      </c>
+      <c r="O21">
+        <v>0.07006323059444025</v>
+      </c>
+      <c r="P21">
+        <v>0.07856388152449204</v>
+      </c>
+      <c r="Q21">
+        <v>5.29563505455689</v>
+      </c>
+      <c r="R21">
+        <v>47.66071549101201</v>
+      </c>
+      <c r="S21">
+        <v>0.0004780032912239834</v>
+      </c>
+      <c r="T21">
+        <v>0.0006039148539238789</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.1931886666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.579566</v>
+      </c>
+      <c r="I22">
+        <v>0.006822455761295062</v>
+      </c>
+      <c r="J22">
+        <v>0.007686927404873833</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>82.303927</v>
+      </c>
+      <c r="N22">
+        <v>246.911781</v>
+      </c>
+      <c r="O22">
+        <v>0.2103654011331419</v>
+      </c>
+      <c r="P22">
+        <v>0.2358886724356653</v>
+      </c>
+      <c r="Q22">
+        <v>15.90018591856067</v>
+      </c>
+      <c r="R22">
+        <v>143.101673267046</v>
+      </c>
+      <c r="S22">
+        <v>0.001435208642937951</v>
+      </c>
+      <c r="T22">
+        <v>0.001813259100645022</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.1931886666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.579566</v>
+      </c>
+      <c r="I23">
+        <v>0.006822455761295062</v>
+      </c>
+      <c r="J23">
+        <v>0.007686927404873833</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>71.272429</v>
+      </c>
+      <c r="N23">
+        <v>213.817287</v>
+      </c>
+      <c r="O23">
+        <v>0.1821693528222338</v>
+      </c>
+      <c r="P23">
+        <v>0.2042716462128862</v>
+      </c>
+      <c r="Q23">
+        <v>13.76902552860467</v>
+      </c>
+      <c r="R23">
+        <v>123.921229757442</v>
+      </c>
+      <c r="S23">
+        <v>0.001242842350693442</v>
+      </c>
+      <c r="T23">
+        <v>0.001570221315312527</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.1931886666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.579566</v>
+      </c>
+      <c r="I24">
+        <v>0.006822455761295062</v>
+      </c>
+      <c r="J24">
+        <v>0.007686927404873833</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>83.25665266666667</v>
+      </c>
+      <c r="N24">
+        <v>249.769958</v>
+      </c>
+      <c r="O24">
+        <v>0.2128005281598046</v>
+      </c>
+      <c r="P24">
+        <v>0.2386192492246123</v>
+      </c>
+      <c r="Q24">
+        <v>16.08424171980311</v>
+      </c>
+      <c r="R24">
+        <v>144.758175478228</v>
+      </c>
+      <c r="S24">
+        <v>0.001451822189350491</v>
+      </c>
+      <c r="T24">
+        <v>0.001834248846195091</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.1931886666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.579566</v>
+      </c>
+      <c r="I25">
+        <v>0.006822455761295062</v>
+      </c>
+      <c r="J25">
+        <v>0.007686927404873833</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>19.3348755</v>
+      </c>
+      <c r="N25">
+        <v>38.66975100000001</v>
+      </c>
+      <c r="O25">
+        <v>0.04941913452582716</v>
+      </c>
+      <c r="P25">
+        <v>0.03694338192314826</v>
+      </c>
+      <c r="Q25">
+        <v>3.735278818011001</v>
+      </c>
+      <c r="R25">
+        <v>22.411672908066</v>
+      </c>
+      <c r="S25">
+        <v>0.0003371598590639453</v>
+      </c>
+      <c r="T25">
+        <v>0.000283981094933769</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>18.03007966666667</v>
+      </c>
+      <c r="H26">
+        <v>54.090239</v>
+      </c>
+      <c r="I26">
+        <v>0.6367320765803667</v>
+      </c>
+      <c r="J26">
+        <v>0.7174122369243112</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>107.663086</v>
+      </c>
+      <c r="N26">
+        <v>215.326172</v>
+      </c>
+      <c r="O26">
+        <v>0.2751823527645522</v>
+      </c>
+      <c r="P26">
+        <v>0.2057131686791961</v>
+      </c>
+      <c r="Q26">
+        <v>1941.174017739184</v>
+      </c>
+      <c r="R26">
+        <v>11647.04410643511</v>
+      </c>
+      <c r="S26">
+        <v>0.1752174309140443</v>
+      </c>
+      <c r="T26">
+        <v>0.1475811445069302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>18.03007966666667</v>
+      </c>
+      <c r="H27">
+        <v>54.090239</v>
+      </c>
+      <c r="I27">
+        <v>0.6367320765803667</v>
+      </c>
+      <c r="J27">
+        <v>0.7174122369243112</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>27.41172733333334</v>
+      </c>
+      <c r="N27">
+        <v>82.23518200000001</v>
+      </c>
+      <c r="O27">
+        <v>0.07006323059444025</v>
+      </c>
+      <c r="P27">
+        <v>0.07856388152449204</v>
+      </c>
+      <c r="Q27">
+        <v>494.2356276209442</v>
+      </c>
+      <c r="R27">
+        <v>4448.120648588499</v>
+      </c>
+      <c r="S27">
+        <v>0.04461150630832702</v>
+      </c>
+      <c r="T27">
+        <v>0.0563626899859424</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1.34165083682753</v>
-      </c>
-      <c r="H19">
-        <v>1.34165083682753</v>
-      </c>
-      <c r="I19">
-        <v>0.0623882447285001</v>
-      </c>
-      <c r="J19">
-        <v>0.0623882447285001</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>19.0358265209011</v>
-      </c>
-      <c r="N19">
-        <v>19.0358265209011</v>
-      </c>
-      <c r="O19">
-        <v>0.05067395377897673</v>
-      </c>
-      <c r="P19">
-        <v>0.05067395377897673</v>
-      </c>
-      <c r="Q19">
-        <v>25.53943258147065</v>
-      </c>
-      <c r="R19">
-        <v>25.53943258147065</v>
-      </c>
-      <c r="S19">
-        <v>0.003161459029723503</v>
-      </c>
-      <c r="T19">
-        <v>0.003161459029723503</v>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>18.03007966666667</v>
+      </c>
+      <c r="H28">
+        <v>54.090239</v>
+      </c>
+      <c r="I28">
+        <v>0.6367320765803667</v>
+      </c>
+      <c r="J28">
+        <v>0.7174122369243112</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>82.303927</v>
+      </c>
+      <c r="N28">
+        <v>246.911781</v>
+      </c>
+      <c r="O28">
+        <v>0.2103654011331419</v>
+      </c>
+      <c r="P28">
+        <v>0.2358886724356653</v>
+      </c>
+      <c r="Q28">
+        <v>1483.946360689518</v>
+      </c>
+      <c r="R28">
+        <v>13355.51724620566</v>
+      </c>
+      <c r="S28">
+        <v>0.1339463987041673</v>
+      </c>
+      <c r="T28">
+        <v>0.1692294201571768</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>18.03007966666667</v>
+      </c>
+      <c r="H29">
+        <v>54.090239</v>
+      </c>
+      <c r="I29">
+        <v>0.6367320765803667</v>
+      </c>
+      <c r="J29">
+        <v>0.7174122369243112</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>71.272429</v>
+      </c>
+      <c r="N29">
+        <v>213.817287</v>
+      </c>
+      <c r="O29">
+        <v>0.1821693528222338</v>
+      </c>
+      <c r="P29">
+        <v>0.2042716462128862</v>
+      </c>
+      <c r="Q29">
+        <v>1285.047572906844</v>
+      </c>
+      <c r="R29">
+        <v>11565.42815616159</v>
+      </c>
+      <c r="S29">
+        <v>0.1159930703118024</v>
+      </c>
+      <c r="T29">
+        <v>0.1465469786497982</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>18.03007966666667</v>
+      </c>
+      <c r="H30">
+        <v>54.090239</v>
+      </c>
+      <c r="I30">
+        <v>0.6367320765803667</v>
+      </c>
+      <c r="J30">
+        <v>0.7174122369243112</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>83.25665266666667</v>
+      </c>
+      <c r="N30">
+        <v>249.769958</v>
+      </c>
+      <c r="O30">
+        <v>0.2128005281598046</v>
+      </c>
+      <c r="P30">
+        <v>0.2386192492246123</v>
+      </c>
+      <c r="Q30">
+        <v>1501.124080359996</v>
+      </c>
+      <c r="R30">
+        <v>13510.11672323996</v>
+      </c>
+      <c r="S30">
+        <v>0.1354969221925912</v>
+      </c>
+      <c r="T30">
+        <v>0.1711883693594288</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>18.03007966666667</v>
+      </c>
+      <c r="H31">
+        <v>54.090239</v>
+      </c>
+      <c r="I31">
+        <v>0.6367320765803667</v>
+      </c>
+      <c r="J31">
+        <v>0.7174122369243112</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>19.3348755</v>
+      </c>
+      <c r="N31">
+        <v>38.66975100000001</v>
+      </c>
+      <c r="O31">
+        <v>0.04941913452582716</v>
+      </c>
+      <c r="P31">
+        <v>0.03694338192314826</v>
+      </c>
+      <c r="Q31">
+        <v>348.6093456100815</v>
+      </c>
+      <c r="R31">
+        <v>2091.656073660489</v>
+      </c>
+      <c r="S31">
+        <v>0.03146674814943443</v>
+      </c>
+      <c r="T31">
+        <v>0.02650363426503496</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1.3444845</v>
+      </c>
+      <c r="H32">
+        <v>2.688969</v>
+      </c>
+      <c r="I32">
+        <v>0.04748045618443927</v>
+      </c>
+      <c r="J32">
+        <v>0.03566446185068859</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>107.663086</v>
+      </c>
+      <c r="N32">
+        <v>215.326172</v>
+      </c>
+      <c r="O32">
+        <v>0.2751823527645522</v>
+      </c>
+      <c r="P32">
+        <v>0.2057131686791961</v>
+      </c>
+      <c r="Q32">
+        <v>144.751350349167</v>
+      </c>
+      <c r="R32">
+        <v>579.005401396668</v>
+      </c>
+      <c r="S32">
+        <v>0.01306578364316823</v>
+      </c>
+      <c r="T32">
+        <v>0.007336649456543456</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1.3444845</v>
+      </c>
+      <c r="H33">
+        <v>2.688969</v>
+      </c>
+      <c r="I33">
+        <v>0.04748045618443927</v>
+      </c>
+      <c r="J33">
+        <v>0.03566446185068859</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>27.41172733333334</v>
+      </c>
+      <c r="N33">
+        <v>82.23518200000001</v>
+      </c>
+      <c r="O33">
+        <v>0.07006323059444025</v>
+      </c>
+      <c r="P33">
+        <v>0.07856388152449204</v>
+      </c>
+      <c r="Q33">
+        <v>36.85464251789301</v>
+      </c>
+      <c r="R33">
+        <v>221.127855107358</v>
+      </c>
+      <c r="S33">
+        <v>0.003326634150379586</v>
+      </c>
+      <c r="T33">
+        <v>0.002801938555472264</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1.3444845</v>
+      </c>
+      <c r="H34">
+        <v>2.688969</v>
+      </c>
+      <c r="I34">
+        <v>0.04748045618443927</v>
+      </c>
+      <c r="J34">
+        <v>0.03566446185068859</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>82.303927</v>
+      </c>
+      <c r="N34">
+        <v>246.911781</v>
+      </c>
+      <c r="O34">
+        <v>0.2103654011331419</v>
+      </c>
+      <c r="P34">
+        <v>0.2358886724356653</v>
+      </c>
+      <c r="Q34">
+        <v>110.6563541406315</v>
+      </c>
+      <c r="R34">
+        <v>663.9381248437891</v>
+      </c>
+      <c r="S34">
+        <v>0.009988245211224137</v>
+      </c>
+      <c r="T34">
+        <v>0.008412842559091362</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1.3444845</v>
+      </c>
+      <c r="H35">
+        <v>2.688969</v>
+      </c>
+      <c r="I35">
+        <v>0.04748045618443927</v>
+      </c>
+      <c r="J35">
+        <v>0.03566446185068859</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>71.272429</v>
+      </c>
+      <c r="N35">
+        <v>213.817287</v>
+      </c>
+      <c r="O35">
+        <v>0.1821693528222338</v>
+      </c>
+      <c r="P35">
+        <v>0.2042716462128862</v>
+      </c>
+      <c r="Q35">
+        <v>95.8246760678505</v>
+      </c>
+      <c r="R35">
+        <v>574.948056407103</v>
+      </c>
+      <c r="S35">
+        <v>0.008649483974823732</v>
+      </c>
+      <c r="T35">
+        <v>0.007285238333536836</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1.3444845</v>
+      </c>
+      <c r="H36">
+        <v>2.688969</v>
+      </c>
+      <c r="I36">
+        <v>0.04748045618443927</v>
+      </c>
+      <c r="J36">
+        <v>0.03566446185068859</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>83.25665266666667</v>
+      </c>
+      <c r="N36">
+        <v>249.769958</v>
+      </c>
+      <c r="O36">
+        <v>0.2128005281598046</v>
+      </c>
+      <c r="P36">
+        <v>0.2386192492246123</v>
+      </c>
+      <c r="Q36">
+        <v>111.937279032217</v>
+      </c>
+      <c r="R36">
+        <v>671.623674193302</v>
+      </c>
+      <c r="S36">
+        <v>0.01010386615331714</v>
+      </c>
+      <c r="T36">
+        <v>0.008510227110811138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1.3444845</v>
+      </c>
+      <c r="H37">
+        <v>2.688969</v>
+      </c>
+      <c r="I37">
+        <v>0.04748045618443927</v>
+      </c>
+      <c r="J37">
+        <v>0.03566446185068859</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>19.3348755</v>
+      </c>
+      <c r="N37">
+        <v>38.66975100000001</v>
+      </c>
+      <c r="O37">
+        <v>0.04941913452582716</v>
+      </c>
+      <c r="P37">
+        <v>0.03694338192314826</v>
+      </c>
+      <c r="Q37">
+        <v>25.99544041917975</v>
+      </c>
+      <c r="R37">
+        <v>103.981761676719</v>
+      </c>
+      <c r="S37">
+        <v>0.002346443051526447</v>
+      </c>
+      <c r="T37">
+        <v>0.00131756583523354</v>
       </c>
     </row>
   </sheetData>
